--- a/states/Danimarca orientale (Danimarca).xlsx
+++ b/states/Danimarca orientale (Danimarca).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>timestamp</t>
   </si>
@@ -148,19 +148,64 @@
     <t>exchange_import</t>
   </si>
   <si>
-    <t>99</t>
+    <t>21:02 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:20 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:32 13-04-2022</t>
+  </si>
+  <si>
+    <t>23:51 13-04-2022</t>
+  </si>
+  <si>
+    <t>00:22 14-04-2022</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
   <si>
     <t>89%</t>
   </si>
   <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
     <t>75%</t>
   </si>
   <si>
-    <t xml:space="preserve"> Germania,1000000.0,-822564.0,1357.79; Danimarca occidentale (Danimarca),600000.0,-110960.0,183.16;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Svezia,1300000.0,1293268.0,895.07;</t>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-660672.0,1179.26;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-879725.0,1573.91;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-877728.0,3094.32;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germania,1000000.0,-962654.0,1654.8; Danimarca occidentale (Danimarca),600000.0,-76342.0,131.62;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danimarca occidentale (Danimarca),600000.0,118296.0,296.81; Svezia,1300000.0,1116000.0,770.9;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danimarca occidentale (Danimarca),600000.0,108075.0,249.44; Svezia,1300000.0,1134650.0,782.77;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Danimarca occidentale (Danimarca),600000.0,107748.0,447.37; Svezia,1300000.0,1132092.0,782.9;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Svezia,1300000.0,1199394.0,828.54;</t>
   </si>
 </sst>
 </file>
@@ -518,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,20 +704,23 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
+      <c r="B2">
+        <v>107</v>
+      </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>2920000</v>
+        <v>2790000</v>
       </c>
       <c r="F2">
-        <v>4820</v>
+        <v>4980</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -696,37 +744,37 @@
         <v>1380000</v>
       </c>
       <c r="N2">
-        <v>361496</v>
+        <v>352656</v>
       </c>
       <c r="O2">
-        <v>1387.2</v>
+        <v>1355.06</v>
       </c>
       <c r="P2">
         <v>1220000</v>
       </c>
       <c r="Q2">
-        <v>123516</v>
+        <v>125550</v>
       </c>
       <c r="R2">
-        <v>1689.41</v>
+        <v>1720.09</v>
       </c>
       <c r="S2">
         <v>1780000</v>
       </c>
       <c r="T2">
-        <v>1015284</v>
+        <v>994077</v>
       </c>
       <c r="U2">
-        <v>186.53</v>
+        <v>182.77</v>
       </c>
       <c r="V2">
         <v>450000</v>
       </c>
       <c r="W2">
-        <v>57232</v>
+        <v>10602</v>
       </c>
       <c r="X2">
-        <v>42.9</v>
+        <v>7.97</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -759,25 +807,525 @@
         <v>603000</v>
       </c>
       <c r="AI2">
-        <v>50224</v>
+        <v>53289</v>
       </c>
       <c r="AJ2">
-        <v>411.63</v>
+        <v>436.25</v>
       </c>
       <c r="AK2">
         <v>801000</v>
       </c>
       <c r="AL2">
-        <v>18980</v>
+        <v>19251</v>
       </c>
       <c r="AM2">
-        <v>207.26</v>
+        <v>210.16</v>
       </c>
       <c r="AQ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>2750000</v>
+      </c>
+      <c r="F3">
+        <v>4920</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1380000</v>
+      </c>
+      <c r="N3">
+        <v>356675</v>
+      </c>
+      <c r="O3">
+        <v>1366.28</v>
+      </c>
+      <c r="P3">
+        <v>1220000</v>
+      </c>
+      <c r="Q3">
+        <v>125400</v>
+      </c>
+      <c r="R3">
+        <v>1712.16</v>
+      </c>
+      <c r="S3">
+        <v>1780000</v>
+      </c>
+      <c r="T3">
+        <v>953975</v>
+      </c>
+      <c r="U3">
+        <v>174.66</v>
+      </c>
+      <c r="V3">
+        <v>450000</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>603000</v>
+      </c>
+      <c r="AI3">
+        <v>52525</v>
+      </c>
+      <c r="AJ3">
+        <v>429.02</v>
+      </c>
+      <c r="AK3">
+        <v>801000</v>
+      </c>
+      <c r="AL3">
+        <v>18975</v>
+      </c>
+      <c r="AM3">
+        <v>205.66</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>2750000</v>
+      </c>
+      <c r="F4">
+        <v>4920</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1380000</v>
+      </c>
+      <c r="N4">
+        <v>356675</v>
+      </c>
+      <c r="O4">
+        <v>1366.28</v>
+      </c>
+      <c r="P4">
+        <v>1220000</v>
+      </c>
+      <c r="Q4">
+        <v>125400</v>
+      </c>
+      <c r="R4">
+        <v>1712.16</v>
+      </c>
+      <c r="S4">
+        <v>1780000</v>
+      </c>
+      <c r="T4">
+        <v>953975</v>
+      </c>
+      <c r="U4">
+        <v>174.66</v>
+      </c>
+      <c r="V4">
+        <v>450000</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>603000</v>
+      </c>
+      <c r="AI4">
+        <v>52525</v>
+      </c>
+      <c r="AJ4">
+        <v>429.02</v>
+      </c>
+      <c r="AK4">
+        <v>801000</v>
+      </c>
+      <c r="AL4">
+        <v>18975</v>
+      </c>
+      <c r="AM4">
+        <v>205.66</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
         <v>47</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="B5">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>2460000</v>
+      </c>
+      <c r="F5">
+        <v>8670</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1380000</v>
+      </c>
+      <c r="N5">
+        <v>693966</v>
+      </c>
+      <c r="O5">
+        <v>2663.42</v>
+      </c>
+      <c r="P5">
+        <v>1220000</v>
+      </c>
+      <c r="Q5">
+        <v>225582</v>
+      </c>
+      <c r="R5">
+        <v>3087.39</v>
+      </c>
+      <c r="S5">
+        <v>1780000</v>
+      </c>
+      <c r="T5">
+        <v>108732</v>
+      </c>
+      <c r="U5">
+        <v>19.94</v>
+      </c>
+      <c r="V5">
+        <v>450000</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>603000</v>
+      </c>
+      <c r="AI5">
+        <v>153750</v>
+      </c>
+      <c r="AJ5">
+        <v>1257.15</v>
+      </c>
+      <c r="AK5">
+        <v>801000</v>
+      </c>
+      <c r="AL5">
+        <v>37884</v>
+      </c>
+      <c r="AM5">
+        <v>411.82</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
         <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>2660000</v>
+      </c>
+      <c r="F6">
+        <v>4570</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1380000</v>
+      </c>
+      <c r="N6">
+        <v>356174</v>
+      </c>
+      <c r="O6">
+        <v>1365.06</v>
+      </c>
+      <c r="P6">
+        <v>1220000</v>
+      </c>
+      <c r="Q6">
+        <v>120764</v>
+      </c>
+      <c r="R6">
+        <v>1648.4</v>
+      </c>
+      <c r="S6">
+        <v>1780000</v>
+      </c>
+      <c r="T6">
+        <v>921158</v>
+      </c>
+      <c r="U6">
+        <v>168.63</v>
+      </c>
+      <c r="V6">
+        <v>450000</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>603000</v>
+      </c>
+      <c r="AI6">
+        <v>43890</v>
+      </c>
+      <c r="AJ6">
+        <v>359.2</v>
+      </c>
+      <c r="AK6">
+        <v>801000</v>
+      </c>
+      <c r="AL6">
+        <v>18620</v>
+      </c>
+      <c r="AM6">
+        <v>200.17</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/states/Danimarca orientale (Danimarca).xlsx
+++ b/states/Danimarca orientale (Danimarca).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,20 +661,14 @@
           <t>17:37 16-04-2022</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
+      <c r="B2" t="n">
+        <v>87</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>74</v>
       </c>
       <c r="E2" t="n">
         <v>2710000</v>
@@ -792,6 +786,146 @@
       <c r="AR2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Svezia_1300000.0_1208931.0_860.44;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:47 16-04-2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1970000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4910</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>224777</v>
+      </c>
+      <c r="O3" t="n">
+        <v>863.1799999999999</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1220000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>146765</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2010.65</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>55948</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="V3" t="n">
+        <v>450000</v>
+      </c>
+      <c r="W3" t="n">
+        <v>228717</v>
+      </c>
+      <c r="X3" t="n">
+        <v>171.85</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>603000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>75845</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>621.12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>801000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>31914</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>347.14</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Germania_1000000.0_-3349.0_8.35; Danimarca occidentale (Danimarca)_600000.0_-462753.0_1152.87;</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Svezia_1300000.0_1205837.0_885.76;</t>
         </is>
       </c>
     </row>
